--- a/data/trans_bre/P2A_lim_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.09110260301674</v>
+        <v>-2.188196995410431</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.656811242299189</v>
+        <v>-1.66915092834458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.552471610221381</v>
+        <v>-2.804490749913954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.058373992723168</v>
+        <v>-2.951863754628821</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3380797079883869</v>
+        <v>-0.3491924948393166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.15172170264461</v>
+        <v>-0.1512089752542727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2661158512148963</v>
+        <v>-0.2675916721809265</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1914222106842291</v>
+        <v>-0.1906841836145714</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.476531071085163</v>
+        <v>2.776872630447506</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.499624722274103</v>
+        <v>5.305616472556544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.746754416105675</v>
+        <v>3.332663438439306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.457728061194269</v>
+        <v>3.692623850546643</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5983417871774303</v>
+        <v>0.7203211141182958</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.729858366600509</v>
+        <v>0.6480574685768543</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5209081002383867</v>
+        <v>0.4757450388471727</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.295058349129882</v>
+        <v>0.3153080244508132</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.132540795005648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.769499185106363</v>
+        <v>1.769499185106366</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08635084006433505</v>
@@ -749,7 +749,7 @@
         <v>0.3170541769559979</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.12539408697115</v>
+        <v>0.1253940869711502</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.580625392784848</v>
+        <v>-1.750859545334268</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.724249938498203</v>
+        <v>-0.7950082366544637</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3833910736417951</v>
+        <v>-0.2500747087563612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.347597998181045</v>
+        <v>-1.576822176804494</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1949148971468532</v>
+        <v>-0.2205819520903249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0645591904993318</v>
+        <v>-0.07155417757113083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05606618386709411</v>
+        <v>-0.05344103582996222</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08602956166337684</v>
+        <v>-0.09522647207089931</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.232506404653168</v>
+        <v>3.005840041842805</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.908960227087785</v>
+        <v>4.884260014264038</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.608835787019276</v>
+        <v>4.805489292739385</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.567074267727431</v>
+        <v>4.631323073751452</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5536169089384996</v>
+        <v>0.4973616536906225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5887699622130192</v>
+        <v>0.5765619830295773</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.797303132957786</v>
+        <v>0.8455944687337285</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3730322031386179</v>
+        <v>0.3772065686327446</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.583105602697654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7921214629219603</v>
+        <v>0.7921214629219575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2432626358671456</v>
@@ -849,7 +849,7 @@
         <v>0.6161839618225718</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05188264774096181</v>
+        <v>0.05188264774096163</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.121484716216912</v>
+        <v>-1.456048683040293</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.809224485872656</v>
+        <v>-1.906908595697753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3103362194999611</v>
+        <v>0.273602035792921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.124966801259603</v>
+        <v>-2.970877597938178</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1434751769917935</v>
+        <v>-0.1773155687472104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1859274524727085</v>
+        <v>-0.1916030683854013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04529070878162472</v>
+        <v>0.02989150198690478</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1765550622356628</v>
+        <v>-0.1783107389252702</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.604458470471029</v>
+        <v>4.481457494311697</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.625739095460933</v>
+        <v>4.538718713434588</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.145450688965974</v>
+        <v>5.155067254164397</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.152439789744046</v>
+        <v>4.354028162879386</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.878239255863137</v>
+        <v>0.8284689578221593</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6593089192642456</v>
+        <v>0.6479517674728161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.754166830621583</v>
+        <v>1.571392091201105</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3055588800392733</v>
+        <v>0.3190571518437313</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.207548710554786</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9966098088252912</v>
+        <v>0.9966098088252939</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3642309672618185</v>
@@ -949,7 +949,7 @@
         <v>0.1413301492624628</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.08788609160847496</v>
+        <v>0.08788609160847521</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07000143205472371</v>
+        <v>0.1903025743473353</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6661645685091264</v>
+        <v>-0.6403891711344821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.570974361139948</v>
+        <v>-1.715443744893036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.009262448707282</v>
+        <v>-1.740662341003265</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.009210355811588442</v>
+        <v>-0.003202946208632007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06795547853776317</v>
+        <v>-0.05606272137900992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1658481230509692</v>
+        <v>-0.1734920787438751</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1564215039040482</v>
+        <v>-0.1389081802427358</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.089738705473271</v>
+        <v>5.112155337358263</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.248622322368184</v>
+        <v>5.180252770423236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.629964836325907</v>
+        <v>3.927354208831266</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.474027227994118</v>
+        <v>3.682665199692888</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8653945252808127</v>
+        <v>0.8314390856708171</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6031152011521309</v>
+        <v>0.6062440532851139</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4906359005500805</v>
+        <v>0.5530879680555169</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3548050161614669</v>
+        <v>0.3717214526247661</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.666701758529006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9597266718890801</v>
+        <v>0.9597266718890829</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2072621595395545</v>
@@ -1049,7 +1049,7 @@
         <v>0.2365919974138433</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0708789404583814</v>
+        <v>0.07087894045838161</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1759059023563641</v>
+        <v>0.227992101711534</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6461412537286856</v>
+        <v>0.505946950649955</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2025611585343983</v>
+        <v>0.3290916681941051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5666379490316752</v>
+        <v>-0.6043985277135339</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02377118636118043</v>
+        <v>0.02736787634645289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06147719022858623</v>
+        <v>0.04883604993858055</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02602307355575393</v>
+        <v>0.04333241668246197</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.04071064359982048</v>
+        <v>-0.04101446023452783</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.864098767530309</v>
+        <v>2.706188937672979</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.730387987962729</v>
+        <v>3.572842821523676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.000606439706746</v>
+        <v>3.053446168883296</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.549021134330061</v>
+        <v>2.398031805489045</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4779128464734936</v>
+        <v>0.4531655125948269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4289791956112965</v>
+        <v>0.4135677299227074</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4617416966861266</v>
+        <v>0.4798544409870482</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2023793746596943</v>
+        <v>0.1891293843554564</v>
       </c>
     </row>
     <row r="19">
